--- a/data/trans_orig/iP30KDA3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDA3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C888DD8-1738-4AC3-BA5B-58818BABD6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CE5D17F-29D3-43E7-9C63-10BAE2576552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F49F3537-8D70-451F-A02C-E8B724E4CE13}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9F89D2E3-A4D0-4A51-806A-9C672C47C04C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si toman verduras frescas o cocinadas una vez al día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C5A7E3-06EA-45EE-8079-D1D18004EE11}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC19C9D-24F9-4102-88ED-46BE0F6F29A9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="D4" s="7">
-        <v>9551</v>
+        <v>100286</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="I4" s="7">
-        <v>10866</v>
+        <v>118634</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c r="N4" s="7">
-        <v>20416</v>
+        <v>218920</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>1846</v>
+        <v>13965</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>5133</v>
+        <v>18181</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="N5" s="7">
-        <v>6979</v>
+        <v>32146</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>11397</v>
+        <v>114251</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136815</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>27395</v>
+        <v>251066</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="D7" s="7">
-        <v>97640</v>
+        <v>165855</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>146</v>
+        <v>279</v>
       </c>
       <c r="I7" s="7">
-        <v>92662</v>
+        <v>214844</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>272</v>
+        <v>516</v>
       </c>
       <c r="N7" s="7">
-        <v>190302</v>
+        <v>380699</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>14808</v>
+        <v>20259</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I8" s="7">
-        <v>8973</v>
+        <v>32676</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="N8" s="7">
-        <v>23781</v>
+        <v>52935</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>112448</v>
+        <v>186114</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>101635</v>
+        <v>247520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>593</v>
       </c>
       <c r="N9" s="7">
-        <v>214083</v>
+        <v>433634</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>279</v>
+        <v>178</v>
       </c>
       <c r="D10" s="7">
-        <v>211536</v>
+        <v>156011</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="I10" s="7">
-        <v>167720</v>
+        <v>138481</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>516</v>
+        <v>341</v>
       </c>
       <c r="N10" s="7">
-        <v>379256</v>
+        <v>294494</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1307,7 +1250,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="7">
-        <v>31377</v>
+        <v>32238</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I11" s="7">
-        <v>20197</v>
+        <v>44608</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="N11" s="7">
-        <v>51574</v>
+        <v>76845</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>242913</v>
+        <v>188249</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>187917</v>
+        <v>183089</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>593</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>430830</v>
+        <v>371339</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="D13" s="7">
-        <v>128704</v>
+        <v>131351</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="I13" s="7">
-        <v>133884</v>
+        <v>152095</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="N13" s="7">
-        <v>262587</v>
+        <v>283446</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7">
-        <v>42415</v>
+        <v>33168</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I14" s="7">
-        <v>32684</v>
+        <v>25214</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="N14" s="7">
-        <v>75100</v>
+        <v>58382</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>171119</v>
+        <v>164519</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>166568</v>
+        <v>177309</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>337687</v>
+        <v>341828</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>202</v>
+        <v>769</v>
       </c>
       <c r="D16" s="7">
-        <v>147318</v>
+        <v>553504</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>784</v>
+      </c>
+      <c r="I16" s="7">
+        <v>624054</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>189</v>
-      </c>
-      <c r="I16" s="7">
-        <v>135525</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1553</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1177558</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>391</v>
-      </c>
-      <c r="N16" s="7">
-        <v>282844</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="D17" s="7">
-        <v>24138</v>
+        <v>99630</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>156</v>
+      </c>
+      <c r="I17" s="7">
+        <v>120679</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>46</v>
-      </c>
-      <c r="I17" s="7">
-        <v>32965</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>302</v>
+      </c>
+      <c r="N17" s="7">
+        <v>220309</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>76</v>
-      </c>
-      <c r="N17" s="7">
-        <v>57103</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>915</v>
       </c>
       <c r="D18" s="7">
-        <v>171456</v>
+        <v>653134</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>940</v>
       </c>
       <c r="I18" s="7">
-        <v>168490</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>467</v>
+        <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>339947</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>784</v>
-      </c>
-      <c r="D19" s="7">
-        <v>594749</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>769</v>
-      </c>
-      <c r="I19" s="7">
-        <v>540656</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1553</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1135405</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>156</v>
-      </c>
-      <c r="D20" s="7">
-        <v>114584</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>146</v>
-      </c>
-      <c r="I20" s="7">
-        <v>99953</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>302</v>
-      </c>
-      <c r="N20" s="7">
-        <v>214537</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>940</v>
-      </c>
-      <c r="D21" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
